--- a/docs/58同城分类.xlsx
+++ b/docs/58同城分类.xlsx
@@ -1,15 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17766"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{9734ECBD-FA84-4C5C-A4CB-AE9BE9F051CF}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="行业需求" sheetId="1" r:id="rId1"/>
+    <sheet name="个人需求" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="519">
   <si>
     <t>房产</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -121,10 +123,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>暂不考虑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>租车</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1834,14 +1832,292 @@
   </si>
   <si>
     <t>烘焙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三级分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生理需求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安全需求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尊重的需求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自我实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>呼吸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>食物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>睡眠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生理平衡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分泌　</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人身安全　</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>健康保障　</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源所有性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道德保障　</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作职位保障</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家庭安全</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>性亲密</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自我尊重　</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>信心</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>　</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成就　</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对他人尊重</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被他人尊重</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道德</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创造力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自觉性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题解决能力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接受现实能力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公正度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>财产所有性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求层次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>环保</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>饮品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生活用水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>友情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爱情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>情感和归属</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>食品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外卖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>改善睡眠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>养生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成人用品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>色情行业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>体育行业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>互助</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金融</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相亲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教育</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房地产</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>社交软件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行业机会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交通安全产品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服装行业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人工智能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>区块链</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>直播</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>知识获取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>社区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>求知</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审美</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>媒体</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1856,19 +2132,29 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5" tint="-0.499984740745262"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="1" tint="0.499984740745262"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1883,12 +2169,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2165,2330 +2457,2312 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:D457"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D27" sqref="D27"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A172" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B463" sqref="B463"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" outlineLevelRow="3" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" outlineLevelRow="3" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.08203125" customWidth="1"/>
-    <col min="2" max="2" width="12.08203125" customWidth="1"/>
-    <col min="3" max="3" width="14.58203125" customWidth="1"/>
+    <col min="1" max="1" width="13.125" customWidth="1"/>
+    <col min="2" max="2" width="12.125" customWidth="1"/>
+    <col min="3" max="3" width="14.625" customWidth="1"/>
     <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>24</v>
       </c>
       <c r="B1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" collapsed="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:3" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
+    <row r="9" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" collapsed="1" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B13" t="s">
+    <row r="14" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
+    <row r="15" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B15" t="s">
+    <row r="16" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B16" t="s">
+    <row r="17" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B17" t="s">
+    <row r="18" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B18" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" collapsed="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B21" t="s">
+    <row r="22" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B22" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" collapsed="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="25" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B25" t="s">
+    <row r="26" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B26" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" collapsed="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="29" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B29" t="s">
+    <row r="30" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="30" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B30" t="s">
+    <row r="31" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="31" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B31" t="s">
+    <row r="32" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="32" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B32" t="s">
+    <row r="33" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="33" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B33" t="s">
+    <row r="34" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B34" t="s">
+    <row r="35" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="35" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B35" t="s">
+    <row r="36" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="36" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B36" t="s">
+    <row r="37" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="37" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B37" t="s">
+    <row r="38" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="38" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B38" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>8</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>9</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="41" spans="1:3" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B43" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="43" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B43" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="45" spans="1:3" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="C46" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="C47" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="C48" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="B49" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="46" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="C46" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="C47" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="C48" t="s">
+    <row r="50" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="C50" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="49" spans="2:3" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="B49" t="s">
+    <row r="51" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="C51" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="C52" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="C53" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="C54" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="C55" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="C56" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="C57" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="C58" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="C59" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="60" spans="2:3" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="B60" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="61" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="C61" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="62" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="C62" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="63" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="C63" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="64" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="C64" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="C65" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="C66" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="C67" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="68" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="C68" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="69" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="C69" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="C70" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="B71" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="72" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="C72" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="73" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="C73" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="74" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="C74" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="75" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="C75" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="76" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="C76" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="77" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="C77" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="78" spans="2:3" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="B78" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="50" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="C50" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="51" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="C51" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="52" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="C52" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="53" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="C53" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="54" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="C54" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="55" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="C55" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="56" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="C56" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="57" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="C57" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="58" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="C58" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="59" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="C59" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="60" spans="2:3" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="B60" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="61" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="C61" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="62" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="C62" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="63" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="C63" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="64" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="C64" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="65" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="C65" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="66" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="C66" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="67" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="C67" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="68" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="C68" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="69" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="C69" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="70" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="C70" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="71" spans="2:3" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="B71" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="72" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="C72" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="73" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="C73" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="74" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="C74" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="75" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="C75" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="76" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="C76" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="77" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="C77" t="s">
+    <row r="79" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="C79" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="78" spans="2:3" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="B78" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="79" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="C79" t="s">
+    <row r="80" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="C80" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="80" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="C80" t="s">
+    <row r="81" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="C81" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="81" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="C81" t="s">
+    <row r="82" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="C82" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="82" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="C82" t="s">
+    <row r="83" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="C83" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="83" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="C83" t="s">
+    <row r="84" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="C84" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="84" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="C84" t="s">
+    <row r="85" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="C85" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="85" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="C85" t="s">
+    <row r="86" spans="2:3" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="B86" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="86" spans="2:3" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="B86" t="s">
+    <row r="87" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="C87" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="87" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="C87" t="s">
+    <row r="88" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="C88" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="88" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="C88" t="s">
+    <row r="89" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="C89" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="89" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="C89" t="s">
+    <row r="90" spans="2:3" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="B90" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="90" spans="2:3" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="B90" t="s">
+    <row r="91" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="C91" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="91" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="C91" t="s">
+    <row r="92" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="C92" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="92" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="C92" t="s">
+    <row r="93" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="C93" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="93" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="C93" t="s">
+    <row r="94" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="C94" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="94" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="C94" t="s">
+    <row r="95" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="C95" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="95" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="C95" t="s">
+    <row r="96" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="C96" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="96" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="C96" t="s">
+    <row r="97" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="C97" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="97" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="C97" t="s">
+    <row r="98" spans="2:3" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="B98" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="98" spans="2:3" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="B98" t="s">
+    <row r="99" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="C99" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="99" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="C99" t="s">
+    <row r="100" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="C100" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="100" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="C100" t="s">
+    <row r="101" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="C101" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="101" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="C101" t="s">
+    <row r="102" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="C102" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="102" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="C102" t="s">
+    <row r="103" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="C103" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="103" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="C103" t="s">
+    <row r="104" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="C104" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="104" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="C104" t="s">
+    <row r="105" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="C105" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="105" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="C105" t="s">
+    <row r="106" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="C106" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="106" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="C106" t="s">
+    <row r="107" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="C107" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="107" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="C107" t="s">
+    <row r="108" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="C108" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="108" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="C108" t="s">
+    <row r="109" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="C109" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="109" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="C109" t="s">
+    <row r="110" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="C110" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="110" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="C110" t="s">
+    <row r="111" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="C111" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="112" spans="2:3" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="B112" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="111" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="C111" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="112" spans="2:3" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="B112" t="s">
+    <row r="113" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="C113" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="113" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="C113" t="s">
+    <row r="114" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="C114" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="114" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="C114" t="s">
+    <row r="115" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="C115" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="115" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="C115" t="s">
+    <row r="116" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="C116" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="116" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="C116" t="s">
+    <row r="117" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="C117" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="117" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="C117" t="s">
+    <row r="118" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="C118" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="118" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="C118" t="s">
+    <row r="119" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="C119" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="119" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="C119" t="s">
+    <row r="120" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="C120" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="120" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="C120" t="s">
+    <row r="121" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="C121" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="121" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="C121" t="s">
+    <row r="122" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="C122" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="122" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="C122" t="s">
+    <row r="123" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="C123" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="123" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="C123" t="s">
+    <row r="124" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="C124" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="124" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="C124" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:3" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="126" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B126" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B127" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="127" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B127" t="s">
+    <row r="128" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B128" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="128" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B128" t="s">
+    <row r="129" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B129" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="129" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B129" t="s">
+    <row r="130" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B130" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="130" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B130" t="s">
+    <row r="131" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B131" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="131" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B131" t="s">
+    <row r="132" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B132" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="132" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B132" t="s">
+    <row r="133" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B133" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="133" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B133" t="s">
+    <row r="134" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B134" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="134" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B134" t="s">
+    <row r="135" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B135" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="135" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B135" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:3" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="137" spans="1:3" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:3" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.2">
       <c r="B137" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="C138" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="C139" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="C140" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="C141" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="C142" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="C143" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="C144" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="B145" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="138" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="C138" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="C139" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="C140" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="C141" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="C142" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="C143" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="C144" t="s">
+    <row r="146" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="C146" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="145" spans="1:3" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="B145" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="C146" t="s">
+    <row r="147" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="C147" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="147" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="C147" t="s">
+    <row r="148" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="C148" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="148" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="C148" t="s">
+    <row r="149" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="C149" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="149" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="C149" t="s">
+    <row r="150" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="C150" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="150" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="C150" t="s">
+    <row r="151" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="C151" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="151" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="C151" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:3" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="153" spans="1:3" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:3" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.2">
       <c r="B153" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="C154" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="154" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="C154" t="s">
+    <row r="155" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="C155" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="155" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="C155" t="s">
+    <row r="156" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="C156" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="156" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="C156" t="s">
+    <row r="157" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="C157" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="157" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="C157" t="s">
+    <row r="158" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="C158" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="158" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="C158" t="s">
+    <row r="159" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="C159" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="159" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="C159" t="s">
+    <row r="160" spans="1:3" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="B160" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="160" spans="1:3" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="B160" t="s">
+    <row r="161" spans="1:4" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="C161" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="161" spans="1:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="C161" t="s">
+    <row r="162" spans="1:4" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="C162" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="162" spans="1:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="C162" t="s">
+    <row r="163" spans="1:4" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="C163" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="163" spans="1:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="C163" t="s">
+    <row r="164" spans="1:4" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="C164" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="164" spans="1:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="C164" t="s">
+    <row r="165" spans="1:4" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="C165" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="165" spans="1:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="C165" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" collapsed="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="167" spans="1:4" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B167" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="C168" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="168" spans="1:4" hidden="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="C168" t="s">
+    <row r="169" spans="1:4" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="D169" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="169" spans="1:4" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="D169" t="s">
+    <row r="170" spans="1:4" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="D170" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="170" spans="1:4" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="D170" t="s">
+    <row r="171" spans="1:4" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="D171" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="D172" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="171" spans="1:4" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="D171" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="D172" t="s">
+    <row r="173" spans="1:4" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="D173" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="173" spans="1:4" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="D173" t="s">
+    <row r="174" spans="1:4" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="D174" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="174" spans="1:4" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="D174" t="s">
+    <row r="175" spans="1:4" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="D175" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="175" spans="1:4" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="D175" t="s">
+    <row r="176" spans="1:4" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="D176" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="176" spans="1:4" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="D176" t="s">
+    <row r="177" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="D177" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="177" spans="3:4" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="D177" t="s">
+    <row r="178" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="D178" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="178" spans="3:4" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="D178" t="s">
+    <row r="179" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="D179" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="179" spans="3:4" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="D179" t="s">
+    <row r="180" spans="3:4" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="C180" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="180" spans="3:4" hidden="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="C180" t="s">
+    <row r="181" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="D181" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="181" spans="3:4" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="D181" t="s">
+    <row r="182" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="D182" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="182" spans="3:4" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="D182" t="s">
+    <row r="183" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="D183" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="184" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="D184" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="183" spans="3:4" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="D183" t="s">
+    <row r="185" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="D185" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="184" spans="3:4" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="D184" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="185" spans="3:4" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="D185" t="s">
+    <row r="186" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="D186" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="186" spans="3:4" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="D186" t="s">
+    <row r="187" spans="3:4" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="C187" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="187" spans="3:4" hidden="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="C187" t="s">
+    <row r="188" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="D188" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="188" spans="3:4" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="D188" t="s">
+    <row r="189" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="D189" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="189" spans="3:4" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="D189" t="s">
+    <row r="190" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="D190" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="190" spans="3:4" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="D190" t="s">
+    <row r="191" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="D191" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="192" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="D192" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="191" spans="3:4" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="D191" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="192" spans="3:4" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="D192" t="s">
+    <row r="193" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="D193" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="193" spans="2:4" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="D193" t="s">
+    <row r="194" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="D194" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="194" spans="2:4" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="D194" t="s">
+    <row r="195" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="D195" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="195" spans="2:4" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="D195" t="s">
+    <row r="196" spans="2:4" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="C196" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="196" spans="2:4" hidden="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="C196" t="s">
+    <row r="197" spans="2:4" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="D197" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="197" spans="2:4" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="D197" t="s">
+    <row r="198" spans="2:4" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="D198" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="198" spans="2:4" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="D198" t="s">
+    <row r="199" spans="2:4" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="D199" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="199" spans="2:4" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="D199" t="s">
+    <row r="200" spans="2:4" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B200" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="200" spans="2:4" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="B200" t="s">
+    <row r="201" spans="2:4" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="C201" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="201" spans="2:4" hidden="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="C201" t="s">
+    <row r="202" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="D202" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="202" spans="2:4" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="D202" t="s">
+    <row r="203" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="D203" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="203" spans="2:4" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="D203" t="s">
+    <row r="204" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="D204" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="204" spans="2:4" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="D204" t="s">
+    <row r="205" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="D205" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="205" spans="2:4" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="D205" t="s">
+    <row r="206" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="D206" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="206" spans="2:4" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="D206" t="s">
+    <row r="207" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="D207" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="207" spans="2:4" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="D207" t="s">
+    <row r="208" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="D208" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="208" spans="2:4" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="D208" t="s">
+    <row r="209" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="D209" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="209" spans="3:4" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="D209" t="s">
+    <row r="210" spans="3:4" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="C210" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="210" spans="3:4" hidden="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="C210" t="s">
+    <row r="211" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="D211" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="211" spans="3:4" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="D211" t="s">
+    <row r="212" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="D212" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="212" spans="3:4" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="D212" t="s">
+    <row r="213" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="D213" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="213" spans="3:4" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="D213" t="s">
+    <row r="214" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="D214" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="214" spans="3:4" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="D214" t="s">
+    <row r="215" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="D215" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="215" spans="3:4" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="D215" t="s">
+    <row r="216" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="D216" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="216" spans="3:4" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="D216" t="s">
+    <row r="217" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="D217" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="217" spans="3:4" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="D217" t="s">
+    <row r="218" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="D218" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="218" spans="3:4" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="D218" t="s">
+    <row r="219" spans="3:4" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="C219" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="219" spans="3:4" hidden="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="C219" t="s">
+    <row r="220" spans="3:4" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="D220" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="220" spans="3:4" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="D220" t="s">
+    <row r="221" spans="3:4" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="D221" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="221" spans="3:4" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="D221" t="s">
+    <row r="222" spans="3:4" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="D222" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="222" spans="3:4" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="D222" t="s">
+    <row r="223" spans="3:4" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="D223" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="223" spans="3:4" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="D223" t="s">
+    <row r="224" spans="3:4" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="D224" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="224" spans="3:4" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="D224" t="s">
+    <row r="225" spans="2:4" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="D225" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="225" spans="2:4" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="D225" t="s">
+    <row r="226" spans="2:4" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="D226" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="226" spans="2:4" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="D226" t="s">
+    <row r="227" spans="2:4" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="D227" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="227" spans="2:4" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="D227" t="s">
+    <row r="228" spans="2:4" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B228" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="228" spans="2:4" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="B228" t="s">
+    <row r="229" spans="2:4" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="C229" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="229" spans="2:4" hidden="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="C229" t="s">
+    <row r="230" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="D230" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="230" spans="2:4" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="D230" t="s">
+    <row r="231" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="D231" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="231" spans="2:4" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="D231" t="s">
+    <row r="232" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="D232" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="232" spans="2:4" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="D232" t="s">
+    <row r="233" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="D233" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="233" spans="2:4" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="D233" t="s">
+    <row r="234" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="D234" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="234" spans="2:4" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="D234" t="s">
+    <row r="235" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="D235" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="235" spans="2:4" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="D235" t="s">
+    <row r="236" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="D236" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="236" spans="2:4" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="D236" t="s">
+    <row r="237" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="D237" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="237" spans="2:4" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="D237" t="s">
+    <row r="238" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="D238" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="238" spans="2:4" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="D238" t="s">
+    <row r="239" spans="2:4" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="C239" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="239" spans="2:4" hidden="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="C239" t="s">
+    <row r="240" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="D240" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="240" spans="2:4" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="D240" t="s">
+    <row r="241" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="D241" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="241" spans="3:4" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="D241" t="s">
+    <row r="242" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="D242" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="242" spans="3:4" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="D242" t="s">
+    <row r="243" spans="3:4" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="C243" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="243" spans="3:4" hidden="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="C243" t="s">
+    <row r="244" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="D244" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="244" spans="3:4" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="D244" t="s">
+    <row r="245" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="D245" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="245" spans="3:4" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="D245" t="s">
+    <row r="246" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="D246" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="246" spans="3:4" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="D246" t="s">
+    <row r="247" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="D247" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="247" spans="3:4" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="D247" t="s">
+    <row r="248" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="D248" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="248" spans="3:4" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="D248" t="s">
+    <row r="249" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="D249" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="249" spans="3:4" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="D249" t="s">
+    <row r="250" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="D250" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="250" spans="3:4" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="D250" t="s">
+    <row r="251" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="D251" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="251" spans="3:4" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="D251" t="s">
+    <row r="252" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="D252" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="252" spans="3:4" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="D252" t="s">
+    <row r="253" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="D253" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="253" spans="3:4" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="D253" t="s">
+    <row r="254" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="D254" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="254" spans="3:4" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="D254" t="s">
+    <row r="255" spans="3:4" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="C255" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="255" spans="3:4" hidden="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="C255" t="s">
+    <row r="256" spans="3:4" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="D256" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="256" spans="3:4" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="D256" t="s">
+    <row r="257" spans="2:4" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="D257" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="257" spans="2:4" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="D257" t="s">
+    <row r="258" spans="2:4" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="D258" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="258" spans="2:4" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="D258" t="s">
+    <row r="259" spans="2:4" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="D259" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="259" spans="2:4" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="D259" t="s">
+    <row r="260" spans="2:4" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="D260" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="260" spans="2:4" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="D260" t="s">
+    <row r="261" spans="2:4" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="D261" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="261" spans="2:4" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="D261" t="s">
+    <row r="262" spans="2:4" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B262" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="262" spans="2:4" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="B262" t="s">
+    <row r="263" spans="2:4" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="C263" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="263" spans="2:4" hidden="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="C263" t="s">
+    <row r="264" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="D264" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="264" spans="2:4" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="D264" t="s">
+    <row r="265" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="D265" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="265" spans="2:4" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="D265" t="s">
+    <row r="266" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="D266" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="266" spans="2:4" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="D266" t="s">
+    <row r="267" spans="2:4" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="C267" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="267" spans="2:4" hidden="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="C267" t="s">
+    <row r="268" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="D268" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="268" spans="2:4" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="D268" t="s">
+    <row r="269" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="D269" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="269" spans="2:4" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="D269" t="s">
+    <row r="270" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="D270" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="270" spans="2:4" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="D270" t="s">
+    <row r="271" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="D271" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="271" spans="2:4" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="D271" t="s">
+    <row r="272" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="D272" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="272" spans="2:4" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="D272" t="s">
+    <row r="273" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="D273" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="273" spans="3:4" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="D273" t="s">
+    <row r="274" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="D274" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="274" spans="3:4" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="D274" t="s">
+    <row r="275" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="D275" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="275" spans="3:4" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="D275" t="s">
+    <row r="276" spans="3:4" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="C276" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="276" spans="3:4" hidden="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="C276" t="s">
+    <row r="277" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="D277" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="277" spans="3:4" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="D277" t="s">
+    <row r="278" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="D278" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="278" spans="3:4" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="D278" t="s">
+    <row r="279" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="D279" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="279" spans="3:4" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="D279" t="s">
+    <row r="280" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="D280" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="280" spans="3:4" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="D280" t="s">
+    <row r="281" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="D281" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="282" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="D282" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="281" spans="3:4" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="D281" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="282" spans="3:4" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="D282" t="s">
+    <row r="283" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="D283" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="283" spans="3:4" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="D283" t="s">
+    <row r="284" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="D284" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="284" spans="3:4" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="D284" t="s">
+    <row r="285" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="D285" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="285" spans="3:4" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="D285" t="s">
+    <row r="286" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="D286" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="286" spans="3:4" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="D286" t="s">
+    <row r="287" spans="3:4" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="C287" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="287" spans="3:4" hidden="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="C287" t="s">
+    <row r="288" spans="3:4" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="D288" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="288" spans="3:4" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="D288" t="s">
+    <row r="289" spans="2:4" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="D289" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="289" spans="2:4" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="D289" t="s">
+    <row r="290" spans="2:4" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="D290" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="290" spans="2:4" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="D290" t="s">
+    <row r="291" spans="2:4" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="D291" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="291" spans="2:4" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="D291" t="s">
+    <row r="292" spans="2:4" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="D292" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="292" spans="2:4" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="D292" t="s">
+    <row r="293" spans="2:4" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B293" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="293" spans="2:4" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="B293" t="s">
+    <row r="294" spans="2:4" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="C294" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="294" spans="2:4" hidden="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="C294" t="s">
+    <row r="295" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="D295" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="295" spans="2:4" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="D295" t="s">
+    <row r="296" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="D296" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="296" spans="2:4" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="D296" t="s">
+    <row r="297" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="D297" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="297" spans="2:4" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="D297" t="s">
+    <row r="298" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="D298" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="298" spans="2:4" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="D298" t="s">
+    <row r="299" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="D299" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="299" spans="2:4" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="D299" t="s">
+    <row r="300" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="D300" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="300" spans="2:4" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="D300" t="s">
+    <row r="301" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="D301" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="301" spans="2:4" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="D301" t="s">
+    <row r="302" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="D302" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="302" spans="2:4" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="D302" t="s">
+    <row r="303" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="D303" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="303" spans="2:4" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="D303" t="s">
+    <row r="304" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="D304" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="304" spans="2:4" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="D304" t="s">
+    <row r="305" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="D305" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="305" spans="3:4" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="D305" t="s">
+    <row r="306" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="D306" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="306" spans="3:4" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="D306" t="s">
+    <row r="307" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="D307" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="307" spans="3:4" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="D307" t="s">
+    <row r="308" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="D308" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="308" spans="3:4" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="D308" t="s">
+    <row r="309" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="D309" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="309" spans="3:4" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="D309" t="s">
+    <row r="310" spans="3:4" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="C310" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="310" spans="3:4" hidden="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="C310" t="s">
+    <row r="311" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="D311" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="311" spans="3:4" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="D311" t="s">
+    <row r="312" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="D312" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="312" spans="3:4" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="D312" t="s">
+    <row r="313" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="D313" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="313" spans="3:4" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="D313" t="s">
+    <row r="314" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="D314" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="314" spans="3:4" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="D314" t="s">
+    <row r="315" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="D315" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="315" spans="3:4" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="D315" t="s">
+    <row r="316" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="D316" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="316" spans="3:4" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="D316" t="s">
+    <row r="317" spans="3:4" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="C317" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="317" spans="3:4" hidden="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="C317" t="s">
+    <row r="318" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="D318" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="318" spans="3:4" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="D318" t="s">
+    <row r="319" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="D319" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="319" spans="3:4" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="D319" t="s">
+    <row r="320" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="D320" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="320" spans="3:4" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="D320" t="s">
+    <row r="321" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="D321" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="321" spans="2:4" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="D321" t="s">
+    <row r="322" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="D322" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="322" spans="2:4" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="D322" t="s">
+    <row r="323" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="D323" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="323" spans="2:4" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="D323" t="s">
+    <row r="324" spans="2:4" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="C324" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="324" spans="2:4" hidden="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="C324" t="s">
+    <row r="325" spans="2:4" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="D325" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="325" spans="2:4" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="D325" t="s">
+    <row r="326" spans="2:4" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="D326" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="326" spans="2:4" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="D326" t="s">
+    <row r="327" spans="2:4" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="D327" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="327" spans="2:4" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="D327" t="s">
+    <row r="328" spans="2:4" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="D328" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="328" spans="2:4" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="D328" t="s">
+    <row r="329" spans="2:4" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="D329" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="329" spans="2:4" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="D329" t="s">
+    <row r="330" spans="2:4" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B330" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="330" spans="2:4" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="B330" t="s">
+    <row r="331" spans="2:4" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="C331" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="331" spans="2:4" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="C331" t="s">
+    <row r="332" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="D332" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="333" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="D333" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="334" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="D334" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="335" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="D335" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="332" spans="2:4" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="D332" t="s">
+    <row r="336" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="D336" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="337" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="D337" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="338" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="D338" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="339" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="D339" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="340" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="D340" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="341" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="D341" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="342" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="D342" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="343" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="D343" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="344" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="D344" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="333" spans="2:4" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="D333" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="334" spans="2:4" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="D334" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="335" spans="2:4" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="D335" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="336" spans="2:4" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="D336" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="337" spans="3:4" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="D337" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="338" spans="3:4" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="D338" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="339" spans="3:4" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="D339" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="340" spans="3:4" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="D340" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="341" spans="3:4" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="D341" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="342" spans="3:4" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="D342" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="343" spans="3:4" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="D343" t="s">
+    <row r="345" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="D345" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="344" spans="3:4" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="D344" t="s">
+    <row r="346" spans="3:4" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="C346" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="345" spans="3:4" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="D345" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="346" spans="3:4" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="C346" t="s">
+    <row r="347" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="D347" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="348" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="D348" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="347" spans="3:4" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="D347" t="s">
+    <row r="349" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="D349" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="350" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="D350" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="351" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="D351" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="352" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="D352" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="D353" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="D354" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="D355" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="D356" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="D357" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="C358" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="348" spans="3:4" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="D348" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="349" spans="3:4" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="D349" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="350" spans="3:4" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="D350" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="351" spans="3:4" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="D351" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="352" spans="3:4" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="D352" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="353" spans="1:4" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="D353" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="354" spans="1:4" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="D354" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="355" spans="1:4" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="D355" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="356" spans="1:4" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="D356" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="357" spans="1:4" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="D357" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="358" spans="1:4" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="C358" t="s">
+    <row r="359" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="D359" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="D360" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="359" spans="1:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="D359" t="s">
+    <row r="361" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="D361" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="D362" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="D363" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="D364" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="D365" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="D366" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="D367" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="360" spans="1:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="D360" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="361" spans="1:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="D361" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="362" spans="1:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="D362" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="363" spans="1:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="D363" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="364" spans="1:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="D364" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="365" spans="1:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="D365" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="366" spans="1:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="D366" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="367" spans="1:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="D367" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="368" spans="1:4" collapsed="1" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="369" spans="1:3" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B369" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="C370" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="370" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="C370" t="s">
+    <row r="371" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="C371" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="371" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="C371" t="s">
+    <row r="372" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="C372" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="372" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="C372" t="s">
+    <row r="373" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="C373" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="373" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="C373" t="s">
+    <row r="374" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="C374" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="374" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="C374" t="s">
+    <row r="375" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="C375" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="375" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="C375" t="s">
+    <row r="376" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B376" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="376" spans="1:3" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="B376" t="s">
+    <row r="377" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="C377" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="377" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="C377" t="s">
+    <row r="378" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="C378" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="378" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="C378" t="s">
+    <row r="379" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="C379" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="379" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="C379" t="s">
+    <row r="380" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="C380" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="380" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="C380" t="s">
+    <row r="381" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="C381" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="381" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="C381" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="383" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="384" spans="1:3" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B384" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="385" spans="3:4" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="C385" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="385" spans="3:4" hidden="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="C385" t="s">
+    <row r="386" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="D386" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="386" spans="3:4" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="D386" t="s">
+    <row r="387" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="D387" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="387" spans="3:4" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="D387" t="s">
+    <row r="388" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="D388" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="388" spans="3:4" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="D388" t="s">
+    <row r="389" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="D389" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="389" spans="3:4" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="D389" t="s">
+    <row r="390" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="D390" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="390" spans="3:4" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="D390" t="s">
+    <row r="391" spans="3:4" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="C391" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="391" spans="3:4" hidden="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="C391" t="s">
+    <row r="392" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="D392" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="392" spans="3:4" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="D392" t="s">
+    <row r="393" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="D393" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="393" spans="3:4" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="D393" t="s">
+    <row r="394" spans="3:4" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="C394" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="394" spans="3:4" hidden="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="C394" t="s">
+    <row r="395" spans="3:4" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="D395" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="395" spans="3:4" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="D395" t="s">
+    <row r="396" spans="3:4" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="D396" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="396" spans="3:4" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="D396" t="s">
+    <row r="397" spans="3:4" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="D397" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="397" spans="3:4" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="D397" t="s">
+    <row r="398" spans="3:4" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="D398" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="398" spans="3:4" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="D398" t="s">
+    <row r="399" spans="3:4" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="D399" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="399" spans="3:4" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="D399" t="s">
+    <row r="400" spans="3:4" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="D400" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="400" spans="3:4" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="D400" t="s">
+    <row r="401" spans="2:4" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="D401" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="401" spans="2:4" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="D401" t="s">
+    <row r="402" spans="2:4" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="D402" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="402" spans="2:4" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="D402" t="s">
+    <row r="403" spans="2:4" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="D403" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="403" spans="2:4" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="D403" t="s">
+    <row r="404" spans="2:4" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="D404" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="404" spans="2:4" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="D404" t="s">
+    <row r="405" spans="2:4" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B405" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="405" spans="2:4" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="B405" t="s">
+    <row r="406" spans="2:4" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="C406" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="406" spans="2:4" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="C406" t="s">
+    <row r="407" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="D407" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="407" spans="2:4" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="D407" t="s">
+    <row r="408" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="D408" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="408" spans="2:4" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="D408" t="s">
+    <row r="409" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="D409" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="409" spans="2:4" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="D409" t="s">
+    <row r="410" spans="2:4" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="C410" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="410" spans="2:4" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="C410" t="s">
+    <row r="411" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="D411" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="411" spans="2:4" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="D411" t="s">
+    <row r="412" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="D412" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="413" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="D413" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="412" spans="2:4" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="D412" t="s">
+    <row r="414" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="D414" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="415" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="D415" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="416" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="D416" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="417" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="D417" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="418" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="D418" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="419" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="D419" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="420" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="D420" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="421" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="D421" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="413" spans="2:4" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="D413" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="414" spans="2:4" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="D414" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="415" spans="2:4" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="D415" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="416" spans="2:4" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="D416" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="417" spans="3:4" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="D417" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="418" spans="3:4" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="D418" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="419" spans="3:4" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="D419" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="420" spans="3:4" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="D420" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="421" spans="3:4" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="D421" t="s">
+    <row r="422" spans="3:4" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="C422" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="422" spans="3:4" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="C422" t="s">
+    <row r="423" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="D423" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="423" spans="3:4" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="D423" t="s">
+    <row r="424" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="D424" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="424" spans="3:4" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="D424" t="s">
+    <row r="425" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="D425" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="425" spans="3:4" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="D425" t="s">
+    <row r="426" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="D426" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="426" spans="3:4" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="D426" t="s">
+    <row r="427" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="D427" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="427" spans="3:4" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="D427" t="s">
+    <row r="428" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="D428" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="428" spans="3:4" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="D428" t="s">
+    <row r="429" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="D429" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="430" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="D430" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="429" spans="3:4" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="D429" t="s">
+    <row r="431" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="D431" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="430" spans="3:4" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="D430" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="431" spans="3:4" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="D431" t="s">
+    <row r="432" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="D432" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="432" spans="3:4" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="D432" t="s">
+    <row r="433" spans="1:4" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="C433" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="433" spans="1:4" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="C433" t="s">
+    <row r="434" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="D434" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="434" spans="1:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="D434" t="s">
+    <row r="435" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="D435" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="435" spans="1:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="D435" t="s">
+    <row r="436" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="D436" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="436" spans="1:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="D436" t="s">
+    <row r="437" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="D437" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="437" spans="1:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="D437" t="s">
+    <row r="438" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="D438" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="438" spans="1:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="D438" t="s">
+    <row r="439" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="D439" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="439" spans="1:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="D439" t="s">
+    <row r="440" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="D440" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="440" spans="1:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="D440" t="s">
+    <row r="441" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="D441" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="441" spans="1:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="D441" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="442" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="443" spans="1:4" collapsed="1" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="444" spans="1:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B444" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="445" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B445" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="445" spans="1:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B445" t="s">
+    <row r="446" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B446" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="446" spans="1:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B446" t="s">
+    <row r="447" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B447" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="447" spans="1:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B447" t="s">
+    <row r="448" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B448" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="448" spans="1:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B448" t="s">
+    <row r="449" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B449" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="449" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B449" t="s">
+    <row r="450" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B450" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="450" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B450" t="s">
+    <row r="451" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B451" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="451" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B451" t="s">
+    <row r="452" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B452" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="452" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B452" t="s">
+    <row r="453" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B453" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="453" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B453" t="s">
+    <row r="454" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B454" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="454" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B454" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="455" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
         <v>21</v>
       </c>
-      <c r="B455" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="456" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="456" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
         <v>22</v>
       </c>
-      <c r="B456" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="457" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="457" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
         <v>23</v>
       </c>
@@ -4497,10 +4771,452 @@
   <dataConsolidate/>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B36" r:id="rId1" display="http://lieche.58.com/"/>
-    <hyperlink ref="C53" r:id="rId2" display="https://bj.daojia.com/jjaz/"/>
+    <hyperlink ref="B36" r:id="rId1" display="http://lieche.58.com/" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C53" r:id="rId2" display="https://bj.daojia.com/jjaz/" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD165711-B490-4558-AAE9-6A3A539BA121}">
+  <dimension ref="A1:I31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>484</v>
+      </c>
+      <c r="B1" t="s">
+        <v>488</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="B2" t="s">
+        <v>458</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="2"/>
+      <c r="B3" t="s">
+        <v>459</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="2"/>
+      <c r="B4" t="s">
+        <v>460</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="2"/>
+      <c r="B5" t="s">
+        <v>461</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="2"/>
+      <c r="B6" t="s">
+        <v>462</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="2"/>
+      <c r="B7" t="s">
+        <v>463</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="2"/>
+      <c r="B8" t="s">
+        <v>464</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="B9" t="s">
+        <v>465</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="2"/>
+      <c r="B10" t="s">
+        <v>466</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="2"/>
+      <c r="B11" t="s">
+        <v>467</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="2"/>
+      <c r="B12" t="s">
+        <v>483</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="2"/>
+      <c r="B13" t="s">
+        <v>468</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="2"/>
+      <c r="B14" t="s">
+        <v>469</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="2"/>
+      <c r="B15" t="s">
+        <v>470</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="B16" t="s">
+        <v>489</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>505</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="2"/>
+      <c r="B17" t="s">
+        <v>490</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="2"/>
+      <c r="B18" t="s">
+        <v>471</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="B19" t="s">
+        <v>472</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="I19" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="2"/>
+      <c r="B20" t="s">
+        <v>473</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="2"/>
+      <c r="B21" t="s">
+        <v>474</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="2"/>
+      <c r="B22" t="s">
+        <v>475</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="2"/>
+      <c r="B23" t="s">
+        <v>476</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="B24" t="s">
+        <v>477</v>
+      </c>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="2"/>
+      <c r="B25" t="s">
+        <v>478</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="2"/>
+      <c r="B26" t="s">
+        <v>479</v>
+      </c>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="2"/>
+      <c r="B27" t="s">
+        <v>480</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="2"/>
+      <c r="B28" t="s">
+        <v>482</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="2"/>
+      <c r="B29" t="s">
+        <v>481</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>516</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>517</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="A9:A15"/>
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="A24:A29"/>
+    <mergeCell ref="A16:A18"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" display="https://baike.so.com/doc/5342961-7116906.html" xr:uid="{A38D85D6-93C5-46CB-B72C-D016C351A7CE}"/>
+    <hyperlink ref="B20" r:id="rId2" display="https://baike.so.com/doc/112509-118673.html" xr:uid="{0E03D52D-661B-44D8-97BF-FA31908D7ABC}"/>
+    <hyperlink ref="B24" r:id="rId3" display="https://baike.so.com/doc/37583-39258.html" xr:uid="{FA46DA5B-D5F0-4AE3-93D2-BDC212A3E237}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
--- a/docs/58同城分类.xlsx
+++ b/docs/58同城分类.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17766"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{9734ECBD-FA84-4C5C-A4CB-AE9BE9F051CF}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="行业需求" sheetId="1" r:id="rId1"/>
@@ -21,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="519">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="584">
   <si>
     <t>房产</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1839,22 +1838,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>生理需求</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>安全需求</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>尊重的需求</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自我实现</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>呼吸</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1904,10 +1887,6 @@
   </si>
   <si>
     <t>家庭安全</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>性亲密</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2013,10 +1992,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>改善睡眠</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>养生</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2033,10 +2008,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>互助</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>金融</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2110,14 +2081,319 @@
   </si>
   <si>
     <t>媒体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安全</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尊重</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信仰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自我实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前互联网头部企业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>世纪佳缘，百合网</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信，陌陌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>linkedIn，猎聘网</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陆金所，蚂蚁金服</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>链家，房天下，安居客</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美团</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装修设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家居家饰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>腾讯游戏，网易游戏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>短视频</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抖音，快手，斗鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>知乎，得到</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>google</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新东方，慕课网</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>头条，微博</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以太坊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>医疗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丁香园</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旅游</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提升吃饭效率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提升健身效率，搭建球迷虚拟社区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提升买房租房效率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提升资金利用效率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提升求职成功率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提升交流效率，组建虚拟社区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提升恋爱结婚效率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>降低当名人的门槛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提升求知效率，降低求知门槛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>降低受教育门槛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>降低公正门槛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提升获取现实的效率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">互联网企业成功的原因
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>提升效率，降低门槛，形成社区</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提升装修效率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>降低获得成就的门槛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>叮咚，keep，懂球帝，淘宝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好好住，酷家乐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>影视</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>音乐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提升追星的效率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哔哩哔哩，爱奇艺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旅行青蛙，跳一跳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>降低获得信仰的门槛，组建虚拟社区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>智慧家庭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>儿童安全产品，监控报警</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提升安全效率，降低保障安全门槛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蚂蜂窝，airbnb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>摄影，艺术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提升旅游效率，降低摄影门槛，
+降低欣赏艺术门槛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>让每一个人都能够呼吸干净的空气</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>愿景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>市场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>环保产业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可行性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>差异化竞争力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>专注室内空气实时监测和治理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>线上部分：利用互联网实现对家庭，办公区域，学校等敏感地带的空气实时检测
+线下部分：提供一站式环保服务，空气治理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>luckin coffee</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提升喝水效率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>让喝水成为一种享受</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泛喝水行业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>线上部分：利用互联网，实现水的实时检测，统计每天喝水数量，定时提醒，还可以分享每天喝水情况。
+线下部分：一款设计前卫，能实现冷热随心，自动调整酸碱平衡，自动过滤杂质的水杯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重新定义水杯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>让每个人都能在家做出5星级酒店的美味</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美食行业</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2148,13 +2424,83 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF002060"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -2169,18 +2515,49 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2457,7 +2834,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -2468,15 +2845,15 @@
       <selection pane="bottomLeft" activeCell="B463" sqref="B463"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" outlineLevelRow="3" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" outlineLevelRow="3" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.125" customWidth="1"/>
-    <col min="2" max="2" width="12.125" customWidth="1"/>
-    <col min="3" max="3" width="14.625" customWidth="1"/>
+    <col min="1" max="1" width="13.08203125" customWidth="1"/>
+    <col min="2" max="2" width="12.08203125" customWidth="1"/>
+    <col min="3" max="3" width="14.58203125" customWidth="1"/>
     <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>24</v>
       </c>
@@ -2487,2282 +2864,2282 @@
         <v>453</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" collapsed="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:3" collapsed="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:2" collapsed="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:2" collapsed="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="1:2" collapsed="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="29" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="30" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="31" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="32" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="33" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="34" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="35" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="36" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="37" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="38" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:3" collapsed="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="43" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="44" spans="1:3" collapsed="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="45" spans="1:3" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="46" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="47" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="48" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="49" spans="2:3" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:3" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="50" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="51" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="52" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="53" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="54" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="55" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="56" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="57" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="58" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="59" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="60" spans="2:3" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:3" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
       <c r="B60" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="61" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="62" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="63" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="64" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="65" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="66" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="67" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="68" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="69" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="70" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="71" spans="2:3" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:3" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
       <c r="B71" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="72" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="73" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="74" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="75" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="76" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="77" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="78" spans="2:3" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:3" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
       <c r="B78" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="79" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="80" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="81" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="C81" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="82" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="C82" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="83" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="C83" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="84" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="C84" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="85" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="C85" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="86" spans="2:3" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:3" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
       <c r="B86" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="87" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="C87" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="88" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="C88" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="89" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="C89" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="90" spans="2:3" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:3" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
       <c r="B90" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="91" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="C91" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="92" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="C92" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="93" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="C93" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="94" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="C94" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="95" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="C95" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="96" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="C96" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="97" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="C97" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="98" spans="2:3" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:3" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
       <c r="B98" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="99" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="C99" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="100" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="C100" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="101" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="C101" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="102" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="C102" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="103" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="C103" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="104" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="C104" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="105" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="C105" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="106" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="C106" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="107" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="C107" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="108" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="C108" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="109" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="C109" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="110" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="C110" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="111" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="C111" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="112" spans="2:3" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:3" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
       <c r="B112" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="113" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="C113" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="114" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="C114" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="115" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="C115" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="116" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="C116" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="117" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="C117" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="118" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="C118" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="119" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="C119" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="120" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="C120" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="121" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="C121" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="122" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="C122" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="123" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="C123" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="124" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="C124" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="125" spans="1:3" collapsed="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="126" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B126" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="127" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B127" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="128" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B128" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="129" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B129" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="130" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B130" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="131" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B131" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="132" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B132" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="133" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B133" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="134" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B134" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="135" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B135" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="136" spans="1:3" collapsed="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="137" spans="1:3" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:3" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
       <c r="B137" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="138" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="C138" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="139" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="C139" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="140" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="C140" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="141" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="C141" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="142" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="C142" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="143" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="C143" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="144" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="C144" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="145" spans="1:3" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:3" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
       <c r="B145" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="146" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="C146" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="147" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="C147" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="148" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="C148" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="149" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="C149" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="150" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="C150" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="151" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="C151" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="152" spans="1:3" collapsed="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="153" spans="1:3" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:3" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
       <c r="B153" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="154" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="C154" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="155" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="C155" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="156" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="C156" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="157" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="C157" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="158" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="C158" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="159" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="C159" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="160" spans="1:3" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:3" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
       <c r="B160" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="161" spans="1:4" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:4" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="C161" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="162" spans="1:4" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:4" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="C162" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="163" spans="1:4" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:4" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="C163" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="164" spans="1:4" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:4" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="C164" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="165" spans="1:4" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:4" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="C165" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="167" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B167" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="168" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="C168" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="169" spans="1:4" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:4" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="D169" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="170" spans="1:4" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:4" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="D170" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="171" spans="1:4" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:4" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="D171" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="172" spans="1:4" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:4" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="D172" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="173" spans="1:4" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:4" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="D173" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="174" spans="1:4" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:4" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="D174" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="175" spans="1:4" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:4" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="D175" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="176" spans="1:4" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:4" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="D176" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="177" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="177" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="D177" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="178" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="178" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="D178" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="179" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="179" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="D179" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="180" spans="3:4" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="180" spans="3:4" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="C180" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="181" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="181" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="D181" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="182" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="182" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="D182" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="183" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="183" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="D183" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="184" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="184" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="D184" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="185" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="185" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="D185" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="186" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="186" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="D186" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="187" spans="3:4" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="187" spans="3:4" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="C187" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="188" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="188" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="D188" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="189" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="189" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="D189" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="190" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="190" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="D190" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="191" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="191" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="D191" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="192" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="192" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="D192" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="193" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="193" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="D193" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="194" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="194" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="D194" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="195" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="195" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="D195" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="196" spans="2:4" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="2:4" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.3">
       <c r="C196" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="197" spans="2:4" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="197" spans="2:4" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="D197" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="198" spans="2:4" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="198" spans="2:4" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="D198" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="199" spans="2:4" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="199" spans="2:4" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="D199" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="200" spans="2:4" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="2:4" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B200" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="201" spans="2:4" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="201" spans="2:4" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="C201" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="202" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="202" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="D202" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="203" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="203" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="D203" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="204" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="204" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="D204" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="205" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="205" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="D205" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="206" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="206" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="D206" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="207" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="207" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="D207" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="208" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="208" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="D208" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="209" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="209" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="D209" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="210" spans="3:4" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="210" spans="3:4" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="C210" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="211" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="211" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="D211" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="212" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="212" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="D212" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="213" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="213" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="D213" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="214" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="214" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="D214" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="215" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="215" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="D215" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="216" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="216" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="D216" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="217" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="217" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="D217" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="218" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="218" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="D218" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="219" spans="3:4" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="3:4" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.3">
       <c r="C219" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="220" spans="3:4" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="220" spans="3:4" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="D220" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="221" spans="3:4" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="221" spans="3:4" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="D221" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="222" spans="3:4" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="222" spans="3:4" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="D222" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="223" spans="3:4" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="223" spans="3:4" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="D223" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="224" spans="3:4" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="224" spans="3:4" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="D224" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="225" spans="2:4" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="225" spans="2:4" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="D225" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="226" spans="2:4" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="226" spans="2:4" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="D226" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="227" spans="2:4" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="227" spans="2:4" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="D227" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="228" spans="2:4" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="2:4" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B228" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="229" spans="2:4" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="229" spans="2:4" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="C229" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="230" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="230" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="D230" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="231" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="231" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="D231" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="232" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="232" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="D232" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="233" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="233" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="D233" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="234" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="234" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="D234" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="235" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="235" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="D235" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="236" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="236" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="D236" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="237" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="237" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="D237" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="238" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="238" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="D238" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="239" spans="2:4" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="239" spans="2:4" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="C239" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="240" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="240" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="D240" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="241" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="241" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="D241" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="242" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="242" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="D242" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="243" spans="3:4" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="243" spans="3:4" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="C243" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="244" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="244" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="D244" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="245" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="245" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="D245" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="246" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="246" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="D246" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="247" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="247" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="D247" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="248" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="248" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="D248" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="249" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="249" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="D249" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="250" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="250" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="D250" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="251" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="251" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="D251" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="252" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="252" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="D252" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="253" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="253" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="D253" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="254" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="254" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="D254" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="255" spans="3:4" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="3:4" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.3">
       <c r="C255" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="256" spans="3:4" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="256" spans="3:4" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="D256" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="257" spans="2:4" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="257" spans="2:4" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="D257" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="258" spans="2:4" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="258" spans="2:4" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="D258" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="259" spans="2:4" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="259" spans="2:4" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="D259" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="260" spans="2:4" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="260" spans="2:4" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="D260" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="261" spans="2:4" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="261" spans="2:4" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="D261" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="262" spans="2:4" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="2:4" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B262" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="263" spans="2:4" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="263" spans="2:4" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="C263" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="264" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="264" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="D264" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="265" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="265" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="D265" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="266" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="266" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="D266" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="267" spans="2:4" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="267" spans="2:4" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="C267" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="268" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="268" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="D268" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="269" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="269" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="D269" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="270" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="270" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="D270" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="271" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="271" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="D271" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="272" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="272" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="D272" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="273" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="273" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="D273" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="274" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="274" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="D274" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="275" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="275" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="D275" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="276" spans="3:4" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="276" spans="3:4" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="C276" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="277" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="277" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="D277" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="278" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="278" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="D278" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="279" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="279" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="D279" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="280" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="280" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="D280" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="281" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="281" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="D281" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="282" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="282" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="D282" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="283" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="283" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="D283" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="284" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="284" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="D284" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="285" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="285" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="D285" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="286" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="286" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="D286" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="287" spans="3:4" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="3:4" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.3">
       <c r="C287" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="288" spans="3:4" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="288" spans="3:4" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="D288" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="289" spans="2:4" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="289" spans="2:4" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="D289" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="290" spans="2:4" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="290" spans="2:4" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="D290" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="291" spans="2:4" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="291" spans="2:4" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="D291" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="292" spans="2:4" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="292" spans="2:4" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="D292" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="293" spans="2:4" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="2:4" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B293" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="294" spans="2:4" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="294" spans="2:4" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="C294" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="295" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="295" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="D295" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="296" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="296" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="D296" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="297" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="297" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="D297" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="298" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="298" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="D298" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="299" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="299" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="D299" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="300" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="300" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="D300" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="301" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="301" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="D301" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="302" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="302" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="D302" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="303" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="303" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="D303" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="304" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="304" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="D304" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="305" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="305" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="D305" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="306" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="306" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="D306" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="307" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="307" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="D307" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="308" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="308" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="D308" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="309" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="309" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="D309" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="310" spans="3:4" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="310" spans="3:4" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="C310" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="311" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="311" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="D311" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="312" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="312" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="D312" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="313" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="313" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="D313" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="314" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="314" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="D314" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="315" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="315" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="D315" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="316" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="316" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="D316" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="317" spans="3:4" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="317" spans="3:4" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="C317" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="318" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="318" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="D318" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="319" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="319" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="D319" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="320" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="320" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="D320" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="321" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="321" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="D321" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="322" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="322" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="D322" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="323" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="323" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="D323" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="324" spans="2:4" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="2:4" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.3">
       <c r="C324" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="325" spans="2:4" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="325" spans="2:4" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="D325" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="326" spans="2:4" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="326" spans="2:4" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="D326" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="327" spans="2:4" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="327" spans="2:4" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="D327" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="328" spans="2:4" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="328" spans="2:4" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="D328" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="329" spans="2:4" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="329" spans="2:4" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="D329" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="330" spans="2:4" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="2:4" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B330" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="331" spans="2:4" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="331" spans="2:4" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="C331" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="332" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="332" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="D332" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="333" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="333" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="D333" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="334" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="334" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="D334" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="335" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="335" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="D335" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="336" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="336" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="D336" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="337" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="337" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="D337" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="338" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="338" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="D338" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="339" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="339" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="D339" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="340" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="340" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="D340" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="341" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="341" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="D341" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="342" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="342" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="D342" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="343" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="343" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="D343" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="344" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="344" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="D344" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="345" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="345" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="D345" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="346" spans="3:4" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="346" spans="3:4" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="C346" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="347" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="347" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="D347" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="348" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="348" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="D348" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="349" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="349" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="D349" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="350" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="350" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="D350" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="351" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="351" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="D351" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="352" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="352" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="D352" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="353" spans="1:4" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:4" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="D353" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="354" spans="1:4" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:4" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="D354" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="355" spans="1:4" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:4" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="D355" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="356" spans="1:4" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:4" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="D356" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="357" spans="1:4" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:4" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="D357" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="358" spans="1:4" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:4" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.3">
       <c r="C358" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="359" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="D359" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="360" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="D360" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="361" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="D361" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="362" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="D362" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="363" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="D363" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="364" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="D364" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="365" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="D365" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="366" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="D366" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="367" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="D367" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="369" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B369" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="370" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="C370" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="371" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="C371" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="372" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="C372" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="373" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="C373" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="374" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="C374" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="375" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="C375" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="376" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B376" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="377" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="C377" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="378" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="C378" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="379" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="C379" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="380" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="C380" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="381" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="C381" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="384" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B384" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="385" spans="3:4" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="385" spans="3:4" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="C385" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="386" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="386" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="D386" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="387" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="387" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="D387" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="388" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="388" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="D388" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="389" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="389" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="D389" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="390" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="390" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="D390" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="391" spans="3:4" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="391" spans="3:4" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="C391" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="392" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="392" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="D392" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="393" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="393" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="D393" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="394" spans="3:4" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.2">
+    <row r="394" spans="3:4" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.3">
       <c r="C394" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="395" spans="3:4" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="395" spans="3:4" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="D395" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="396" spans="3:4" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="396" spans="3:4" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="D396" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="397" spans="3:4" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="397" spans="3:4" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="D397" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="398" spans="3:4" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="398" spans="3:4" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="D398" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="399" spans="3:4" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="399" spans="3:4" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="D399" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="400" spans="3:4" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="400" spans="3:4" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="D400" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="401" spans="2:4" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="401" spans="2:4" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="D401" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="402" spans="2:4" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="402" spans="2:4" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="D402" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="403" spans="2:4" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="403" spans="2:4" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="D403" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="404" spans="2:4" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="404" spans="2:4" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="D404" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="405" spans="2:4" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="405" spans="2:4" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B405" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="406" spans="2:4" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="406" spans="2:4" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="C406" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="407" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="407" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="D407" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="408" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="408" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="D408" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="409" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="409" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="D409" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="410" spans="2:4" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="410" spans="2:4" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="C410" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="411" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="411" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="D411" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="412" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="412" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="D412" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="413" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="413" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="D413" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="414" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="414" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="D414" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="415" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="415" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="D415" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="416" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="416" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="D416" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="417" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="417" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="D417" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="418" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="418" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="D418" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="419" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="419" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="D419" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="420" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="420" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="D420" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="421" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="421" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="D421" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="422" spans="3:4" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="422" spans="3:4" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="C422" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="423" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="423" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="D423" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="424" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="424" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="D424" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="425" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="425" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="D425" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="426" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="426" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="D426" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="427" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="427" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="D427" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="428" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="428" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="D428" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="429" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="429" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="D429" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="430" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="430" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="D430" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="431" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="431" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="D431" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="432" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="432" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="D432" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="433" spans="1:4" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:4" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.3">
       <c r="C433" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="434" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="D434" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="435" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="D435" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="436" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="D436" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="437" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="D437" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="438" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="D438" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="439" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="D439" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="440" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="D440" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="441" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="D441" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="442" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="443" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="444" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B444" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="445" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B445" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="446" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B446" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="447" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B447" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="448" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B448" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="449" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B449" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="450" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B450" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="451" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B451" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="452" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B452" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="453" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B453" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="454" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B454" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="455" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="456" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="457" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
         <v>23</v>
       </c>
@@ -4771,8 +5148,8 @@
   <dataConsolidate/>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B36" r:id="rId1" display="http://lieche.58.com/" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="C53" r:id="rId2" display="https://bj.daojia.com/jjaz/" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B36" r:id="rId1" display="http://lieche.58.com/"/>
+    <hyperlink ref="C53" r:id="rId2" display="https://bj.daojia.com/jjaz/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" r:id="rId3"/>
@@ -4780,441 +5157,557 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD165711-B490-4558-AAE9-6A3A539BA121}">
-  <dimension ref="A1:I31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5" customWidth="1"/>
+    <col min="2" max="2" width="11.83203125" customWidth="1"/>
+    <col min="3" max="3" width="11.75" customWidth="1"/>
+    <col min="4" max="4" width="10.25" customWidth="1"/>
+    <col min="5" max="5" width="23.58203125" customWidth="1"/>
+    <col min="6" max="6" width="31.33203125" customWidth="1"/>
+    <col min="7" max="7" width="35.08203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.75" customWidth="1"/>
+    <col min="9" max="9" width="33" customWidth="1"/>
+    <col min="10" max="10" width="12.4140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:10" ht="28" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>479</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>483</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="D1" s="7"/>
+      <c r="E1" s="8" t="s">
+        <v>517</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>549</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>569</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>570</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>572</v>
+      </c>
+      <c r="J1" s="14" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="70" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="B2" t="s">
+        <v>454</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="4"/>
+      <c r="G2" t="s">
+        <v>568</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>575</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="84" x14ac:dyDescent="0.3">
+      <c r="A3" s="3"/>
+      <c r="B3" t="s">
+        <v>455</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>576</v>
+      </c>
+      <c r="F3" t="s">
+        <v>577</v>
+      </c>
+      <c r="G3" t="s">
+        <v>578</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>580</v>
+      </c>
+      <c r="J3" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="3"/>
+      <c r="B4" t="s">
+        <v>456</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>523</v>
+      </c>
+      <c r="F4" t="s">
+        <v>537</v>
+      </c>
+      <c r="G4" t="s">
+        <v>582</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="3"/>
+      <c r="B5" t="s">
+        <v>457</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>553</v>
+      </c>
+      <c r="F5" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="3"/>
+      <c r="B6" t="s">
+        <v>458</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="E6" s="4"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="3"/>
+      <c r="B7" t="s">
+        <v>459</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>552</v>
+      </c>
+      <c r="F7" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="3"/>
+      <c r="B8" t="s">
+        <v>460</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="E8" s="4"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="B9" t="s">
+        <v>461</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="E9" s="4"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="3"/>
+      <c r="B10" t="s">
+        <v>462</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="3"/>
+      <c r="B11" t="s">
+        <v>463</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="4" t="s">
+        <v>522</v>
+      </c>
+      <c r="F11" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="3"/>
+      <c r="B12" t="s">
+        <v>478</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="4" t="s">
+        <v>521</v>
+      </c>
+      <c r="F12" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="3"/>
+      <c r="B13" t="s">
+        <v>464</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="4"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="3"/>
+      <c r="B14" t="s">
+        <v>465</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="4" t="s">
+        <v>520</v>
+      </c>
+      <c r="F14" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="3"/>
+      <c r="B15" t="s">
+        <v>466</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="4" t="s">
+        <v>563</v>
+      </c>
+      <c r="F15" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="B16" t="s">
         <v>484</v>
       </c>
-      <c r="B1" t="s">
-        <v>488</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="C16" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>519</v>
+      </c>
+      <c r="F16" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="3"/>
+      <c r="B17" t="s">
+        <v>485</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="4" t="s">
+        <v>518</v>
+      </c>
+      <c r="F17" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="3"/>
+      <c r="B18" t="s">
+        <v>515</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>559</v>
+      </c>
+      <c r="F18" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="B19" t="s">
+        <v>467</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="4"/>
+      <c r="G19" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="3"/>
+      <c r="B20" t="s">
+        <v>468</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="4"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="3"/>
+      <c r="B21" t="s">
+        <v>469</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="D21" s="2"/>
+      <c r="E21" s="4" t="s">
+        <v>526</v>
+      </c>
+      <c r="F21" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="3"/>
+      <c r="B22" t="s">
+        <v>470</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>557</v>
+      </c>
+      <c r="F22" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="3"/>
+      <c r="B23" t="s">
+        <v>471</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>528</v>
+      </c>
+      <c r="F23" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="B24" t="s">
+        <v>509</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>507</v>
       </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>454</v>
-      </c>
-      <c r="B2" t="s">
-        <v>458</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>485</v>
-      </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="2"/>
-      <c r="B3" t="s">
-        <v>459</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>486</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>487</v>
-      </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="2"/>
-      <c r="B4" t="s">
-        <v>460</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>492</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>493</v>
-      </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="2"/>
-      <c r="B5" t="s">
-        <v>461</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>494</v>
-      </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="2"/>
-      <c r="B6" t="s">
-        <v>462</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>495</v>
-      </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="2"/>
-      <c r="B7" t="s">
-        <v>463</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>498</v>
-      </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="2"/>
-      <c r="B8" t="s">
-        <v>464</v>
-      </c>
-      <c r="C8" s="3" t="s">
+      <c r="D24" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>529</v>
+      </c>
+      <c r="F24" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="28" x14ac:dyDescent="0.3">
+      <c r="A25" s="3"/>
+      <c r="B25" t="s">
+        <v>510</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>565</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="3"/>
+      <c r="B26" t="s">
+        <v>472</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="4"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="3"/>
+      <c r="B27" t="s">
+        <v>473</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="D27" s="2"/>
+      <c r="E27" s="4" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="3"/>
+      <c r="B28" t="s">
+        <v>474</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="4"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="3"/>
+      <c r="B29" t="s">
+        <v>475</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>496</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>497</v>
-      </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>455</v>
-      </c>
-      <c r="B9" t="s">
-        <v>465</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>509</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>510</v>
-      </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="2"/>
-      <c r="B10" t="s">
-        <v>466</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>499</v>
-      </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="2"/>
-      <c r="B11" t="s">
-        <v>467</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>504</v>
-      </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="2"/>
-      <c r="B12" t="s">
-        <v>483</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>500</v>
-      </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="2"/>
-      <c r="B13" t="s">
-        <v>468</v>
-      </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="2"/>
-      <c r="B14" t="s">
-        <v>469</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="2"/>
-      <c r="B15" t="s">
-        <v>470</v>
-      </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
-        <v>491</v>
-      </c>
-      <c r="B16" t="s">
-        <v>489</v>
-      </c>
-      <c r="C16" s="3" t="s">
+      <c r="D29" s="2"/>
+      <c r="E29" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="F29" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="3"/>
+      <c r="B30" t="s">
+        <v>477</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>505</v>
       </c>
-      <c r="D16" s="3" t="s">
-        <v>506</v>
-      </c>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="2"/>
-      <c r="B17" t="s">
-        <v>490</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>501</v>
-      </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="2"/>
-      <c r="B18" t="s">
-        <v>471</v>
-      </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="B19" t="s">
-        <v>472</v>
-      </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="I19" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="2"/>
-      <c r="B20" t="s">
-        <v>473</v>
-      </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="2"/>
-      <c r="B21" t="s">
-        <v>474</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>502</v>
-      </c>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="2"/>
-      <c r="B22" t="s">
-        <v>475</v>
-      </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="2"/>
-      <c r="B23" t="s">
+      <c r="D30" s="2"/>
+      <c r="E30" s="4" t="s">
+        <v>533</v>
+      </c>
+      <c r="F30" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="3"/>
+      <c r="B31" t="s">
         <v>476</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>513</v>
-      </c>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
-        <v>457</v>
-      </c>
-      <c r="B24" t="s">
-        <v>477</v>
-      </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="2"/>
-      <c r="B25" t="s">
-        <v>478</v>
-      </c>
-      <c r="C25" s="3" t="s">
+      <c r="C31" s="2" t="s">
         <v>511</v>
       </c>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="2"/>
-      <c r="B26" t="s">
-        <v>479</v>
-      </c>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="2"/>
-      <c r="B27" t="s">
-        <v>480</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>503</v>
-      </c>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="2"/>
-      <c r="B28" t="s">
-        <v>482</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>512</v>
-      </c>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" s="2"/>
-      <c r="B29" t="s">
-        <v>481</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>518</v>
-      </c>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>516</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>514</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>517</v>
+      <c r="E31" s="4" t="s">
+        <v>532</v>
+      </c>
+      <c r="F31" t="s">
+        <v>548</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="C1:D1"/>
     <mergeCell ref="A9:A15"/>
     <mergeCell ref="A2:A8"/>
     <mergeCell ref="A19:A23"/>
-    <mergeCell ref="A24:A29"/>
     <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A24:A31"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" display="https://baike.so.com/doc/5342961-7116906.html" xr:uid="{A38D85D6-93C5-46CB-B72C-D016C351A7CE}"/>
-    <hyperlink ref="B20" r:id="rId2" display="https://baike.so.com/doc/112509-118673.html" xr:uid="{0E03D52D-661B-44D8-97BF-FA31908D7ABC}"/>
-    <hyperlink ref="B24" r:id="rId3" display="https://baike.so.com/doc/37583-39258.html" xr:uid="{FA46DA5B-D5F0-4AE3-93D2-BDC212A3E237}"/>
+    <hyperlink ref="B3" r:id="rId1" display="https://baike.so.com/doc/5342961-7116906.html"/>
+    <hyperlink ref="B20" r:id="rId2" display="https://baike.so.com/doc/112509-118673.html"/>
+    <hyperlink ref="B26" r:id="rId3" display="https://baike.so.com/doc/37583-39258.html"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>

--- a/docs/58同城分类.xlsx
+++ b/docs/58同城分类.xlsx
@@ -1,14 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17766"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{8B7E0D25-EBDA-4CE7-87E5-01CE91B4A456}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="行业需求" sheetId="1" r:id="rId1"/>
     <sheet name="个人需求" sheetId="2" r:id="rId2"/>
+    <sheet name="平台" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="584">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="653">
   <si>
     <t>房产</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2388,11 +2390,287 @@
     <t>美食行业</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>交换平台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务平台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>社区平台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实物交换</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽象物品交换</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信息交换</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提供方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交换方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接收方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房屋拥有者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寻求住房者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>准备装修房屋者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房屋设计信息，设计师展现实力的平台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>租房/买房信息平台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车主</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>买家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二手车交换平台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>希望出行的人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提供顺风车信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>希望租车的人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提供租车信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学生/家长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上门家教平台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>护士</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>患者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上门医护平台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在线授课平台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二手物品交易平台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物品所有者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物品购买者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物拥有者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物接受者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物寄养平台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人才库平台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>具有专业技术的人才</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发起创业者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旧物/废物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>废旧物品收购者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>废旧物品处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家政从业人员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家庭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家政业务提供平台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家庭上门服务人员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家庭事务中介服务平台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>婚庆从业人员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新婚夫妇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>婚礼服务平台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人摄影师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要摄影服务的人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>摄影服务平台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>程序员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要软件的人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>软件服务中介平台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>律师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要打官司的人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法律服务平台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>心理/情感咨询师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>心理/情感咨询平台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要心理/情感咨询的人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交友方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>社交平台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相亲方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>婚恋平台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>某公司或行业在职人员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>即将找工作或想从事某行业的人员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司/职场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2521,17 +2799,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -2555,9 +2827,15 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2834,26 +3112,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:D457"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A172" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B463" sqref="B463"/>
+      <pane ySplit="1" topLeftCell="A160" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D183" sqref="D183"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" outlineLevelRow="3" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" outlineLevelRow="3" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.08203125" customWidth="1"/>
-    <col min="2" max="2" width="12.08203125" customWidth="1"/>
-    <col min="3" max="3" width="14.58203125" customWidth="1"/>
+    <col min="1" max="1" width="13.125" customWidth="1"/>
+    <col min="2" max="2" width="12.125" customWidth="1"/>
+    <col min="3" max="3" width="14.625" customWidth="1"/>
     <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>24</v>
       </c>
@@ -2864,2282 +3142,2282 @@
         <v>453</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:2" collapsed="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:2" collapsed="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="1:2" collapsed="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="29" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="30" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="31" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="32" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="33" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="34" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="35" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="36" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="37" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="38" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="43" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="44" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="45" spans="1:3" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="46" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="C46" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="47" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="C47" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="48" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="C48" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="49" spans="2:3" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:3" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="50" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="C50" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="51" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="C51" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="52" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="C52" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="53" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="C53" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="54" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="C54" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="55" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="C55" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="56" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="C56" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="57" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="C57" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="58" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="C58" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="59" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="C59" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="60" spans="2:3" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:3" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="61" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="C61" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="62" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="C62" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="63" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="C63" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="64" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="C64" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="65" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="C65" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="66" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="C66" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="67" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="C67" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="68" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="C68" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="69" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="C69" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="70" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="C70" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="71" spans="2:3" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:3" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.2">
       <c r="B71" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="72" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="C72" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="73" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="C73" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="74" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="C74" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="75" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="C75" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="76" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="C76" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="77" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="C77" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="78" spans="2:3" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:3" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.2">
       <c r="B78" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="79" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="C79" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="80" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="C80" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="81" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="C81" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="82" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="C82" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="83" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="C83" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="84" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="C84" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="85" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="C85" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="86" spans="2:3" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:3" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.2">
       <c r="B86" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="87" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="C87" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="88" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="C88" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="89" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="C89" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="90" spans="2:3" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:3" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.2">
       <c r="B90" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="91" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="C91" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="92" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="C92" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="93" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="C93" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="94" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="C94" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="95" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="C95" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="96" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="C96" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="97" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="C97" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="98" spans="2:3" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:3" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.2">
       <c r="B98" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="99" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="C99" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="100" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="C100" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="101" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="C101" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="102" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="C102" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="103" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="C103" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="104" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="C104" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="105" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="C105" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="106" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="C106" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="107" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="C107" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="108" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="C108" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="109" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="C109" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="110" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="C110" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="111" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="C111" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="112" spans="2:3" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:3" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.2">
       <c r="B112" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="113" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="C113" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="114" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="C114" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="115" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="C115" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="116" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="C116" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="117" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="C117" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="118" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="C118" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="119" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="C119" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="120" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="C120" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="121" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="C121" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="122" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="C122" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="123" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="C123" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="124" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="C124" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="125" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="126" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B126" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="127" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B127" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="128" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B128" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="129" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B129" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="130" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B130" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="131" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B131" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="132" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B132" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="133" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B133" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="134" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B134" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="135" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B135" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="136" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="137" spans="1:3" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B137" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="138" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="C138" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="139" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="C139" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="140" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="C140" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="141" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="C141" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="142" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="C142" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="143" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="C143" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="144" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="C144" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="145" spans="1:3" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B145" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="146" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="C146" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="147" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="C147" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="148" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="C148" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="149" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="C149" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="150" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="C150" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="151" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="C151" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="152" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="153" spans="1:3" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:3" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.2">
       <c r="B153" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="154" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="C154" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="155" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="C155" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="156" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="C156" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="157" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="C157" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="158" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="C158" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="159" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="C159" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="160" spans="1:3" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:3" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.2">
       <c r="B160" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="161" spans="1:4" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:4" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="C161" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="162" spans="1:4" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:4" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="C162" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="163" spans="1:4" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:4" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="C163" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="164" spans="1:4" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:4" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="C164" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="165" spans="1:4" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:4" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="C165" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="167" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B167" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="168" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="C168" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="169" spans="1:4" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:4" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="D169" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="170" spans="1:4" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:4" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="D170" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="171" spans="1:4" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:4" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="D171" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="172" spans="1:4" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:4" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="D172" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="173" spans="1:4" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:4" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="D173" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="174" spans="1:4" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:4" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="D174" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="175" spans="1:4" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:4" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="D175" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="176" spans="1:4" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:4" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="D176" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="177" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="177" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="D177" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="178" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="178" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="D178" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="179" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="179" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="D179" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="180" spans="3:4" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="180" spans="3:4" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="C180" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="181" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="181" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="D181" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="182" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="182" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="D182" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="183" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="183" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="D183" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="184" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="184" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="D184" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="185" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="185" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="D185" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="186" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="186" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="D186" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="187" spans="3:4" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="187" spans="3:4" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="C187" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="188" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="188" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="D188" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="189" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="189" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="D189" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="190" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="190" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="D190" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="191" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="191" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="D191" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="192" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="192" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="D192" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="193" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="193" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="D193" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="194" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="194" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="D194" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="195" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="195" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="D195" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="196" spans="2:4" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="2:4" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.2">
       <c r="C196" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="197" spans="2:4" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="197" spans="2:4" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="D197" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="198" spans="2:4" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="198" spans="2:4" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="D198" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="199" spans="2:4" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="199" spans="2:4" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="D199" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="200" spans="2:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="2:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B200" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="201" spans="2:4" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="201" spans="2:4" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="C201" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="202" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="202" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="D202" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="203" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="203" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="D203" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="204" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="204" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="D204" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="205" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="205" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="D205" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="206" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="206" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="D206" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="207" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="207" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="D207" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="208" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="208" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="D208" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="209" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="209" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="D209" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="210" spans="3:4" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="210" spans="3:4" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="C210" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="211" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="211" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="D211" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="212" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="212" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="D212" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="213" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="213" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="D213" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="214" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="214" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="D214" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="215" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="215" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="D215" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="216" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="216" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="D216" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="217" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="217" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="D217" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="218" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="218" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="D218" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="219" spans="3:4" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="3:4" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.2">
       <c r="C219" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="220" spans="3:4" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="220" spans="3:4" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="D220" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="221" spans="3:4" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="221" spans="3:4" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="D221" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="222" spans="3:4" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="222" spans="3:4" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="D222" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="223" spans="3:4" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="223" spans="3:4" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="D223" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="224" spans="3:4" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="224" spans="3:4" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="D224" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="225" spans="2:4" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="225" spans="2:4" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="D225" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="226" spans="2:4" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="226" spans="2:4" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="D226" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="227" spans="2:4" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="227" spans="2:4" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="D227" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="228" spans="2:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="2:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B228" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="229" spans="2:4" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="229" spans="2:4" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="C229" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="230" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="230" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="D230" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="231" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="231" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="D231" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="232" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="232" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="D232" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="233" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="233" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="D233" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="234" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="234" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="D234" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="235" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="235" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="D235" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="236" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="236" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="D236" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="237" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="237" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="D237" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="238" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="238" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="D238" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="239" spans="2:4" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="239" spans="2:4" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="C239" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="240" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="240" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="D240" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="241" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="241" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="D241" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="242" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="242" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="D242" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="243" spans="3:4" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="243" spans="3:4" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="C243" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="244" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="244" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="D244" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="245" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="245" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="D245" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="246" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="246" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="D246" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="247" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="247" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="D247" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="248" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="248" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="D248" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="249" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="249" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="D249" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="250" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="250" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="D250" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="251" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="251" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="D251" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="252" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="252" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="D252" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="253" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="253" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="D253" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="254" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="254" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="D254" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="255" spans="3:4" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="3:4" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.2">
       <c r="C255" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="256" spans="3:4" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="256" spans="3:4" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="D256" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="257" spans="2:4" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="257" spans="2:4" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="D257" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="258" spans="2:4" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="258" spans="2:4" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="D258" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="259" spans="2:4" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="259" spans="2:4" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="D259" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="260" spans="2:4" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="260" spans="2:4" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="D260" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="261" spans="2:4" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="261" spans="2:4" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="D261" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="262" spans="2:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="2:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B262" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="263" spans="2:4" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="263" spans="2:4" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="C263" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="264" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="264" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="D264" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="265" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="265" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="D265" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="266" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="266" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="D266" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="267" spans="2:4" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="267" spans="2:4" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="C267" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="268" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="268" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="D268" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="269" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="269" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="D269" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="270" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="270" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="D270" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="271" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="271" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="D271" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="272" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="272" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="D272" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="273" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="273" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="D273" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="274" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="274" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="D274" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="275" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="275" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="D275" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="276" spans="3:4" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="276" spans="3:4" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="C276" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="277" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="277" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="D277" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="278" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="278" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="D278" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="279" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="279" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="D279" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="280" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="280" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="D280" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="281" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="281" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="D281" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="282" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="282" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="D282" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="283" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="283" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="D283" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="284" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="284" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="D284" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="285" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="285" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="D285" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="286" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="286" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="D286" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="287" spans="3:4" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="3:4" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.2">
       <c r="C287" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="288" spans="3:4" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="288" spans="3:4" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="D288" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="289" spans="2:4" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="289" spans="2:4" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="D289" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="290" spans="2:4" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="290" spans="2:4" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="D290" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="291" spans="2:4" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="291" spans="2:4" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="D291" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="292" spans="2:4" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="292" spans="2:4" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="D292" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="293" spans="2:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="2:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B293" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="294" spans="2:4" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="294" spans="2:4" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="C294" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="295" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="295" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="D295" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="296" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="296" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="D296" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="297" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="297" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="D297" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="298" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="298" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="D298" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="299" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="299" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="D299" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="300" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="300" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="D300" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="301" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="301" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="D301" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="302" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="302" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="D302" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="303" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="303" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="D303" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="304" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="304" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="D304" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="305" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="305" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="D305" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="306" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="306" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="D306" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="307" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="307" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="D307" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="308" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="308" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="D308" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="309" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="309" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="D309" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="310" spans="3:4" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="310" spans="3:4" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="C310" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="311" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="311" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="D311" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="312" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="312" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="D312" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="313" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="313" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="D313" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="314" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="314" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="D314" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="315" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="315" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="D315" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="316" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="316" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="D316" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="317" spans="3:4" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="317" spans="3:4" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="C317" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="318" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="318" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="D318" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="319" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="319" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="D319" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="320" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="320" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="D320" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="321" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="321" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="D321" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="322" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="322" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="D322" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="323" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="323" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="D323" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="324" spans="2:4" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="2:4" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.2">
       <c r="C324" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="325" spans="2:4" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="325" spans="2:4" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="D325" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="326" spans="2:4" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="326" spans="2:4" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="D326" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="327" spans="2:4" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="327" spans="2:4" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="D327" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="328" spans="2:4" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="328" spans="2:4" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="D328" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="329" spans="2:4" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="329" spans="2:4" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="D329" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="330" spans="2:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="2:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B330" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="331" spans="2:4" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="331" spans="2:4" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="C331" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="332" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="332" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="D332" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="333" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="333" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="D333" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="334" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="334" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="D334" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="335" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="335" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="D335" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="336" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="336" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="D336" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="337" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="337" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="D337" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="338" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="338" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="D338" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="339" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="339" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="D339" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="340" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="340" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="D340" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="341" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="341" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="D341" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="342" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="342" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="D342" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="343" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="343" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="D343" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="344" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="344" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="D344" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="345" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="345" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="D345" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="346" spans="3:4" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="346" spans="3:4" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="C346" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="347" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="347" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="D347" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="348" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="348" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="D348" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="349" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="349" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="D349" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="350" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="350" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="D350" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="351" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="351" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="D351" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="352" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="352" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="D352" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="353" spans="1:4" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:4" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="D353" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="354" spans="1:4" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:4" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="D354" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="355" spans="1:4" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:4" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="D355" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="356" spans="1:4" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:4" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="D356" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="357" spans="1:4" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:4" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="D357" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="358" spans="1:4" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:4" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.2">
       <c r="C358" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="359" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="D359" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="360" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="D360" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="361" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="D361" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="362" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="D362" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="363" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="D363" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="364" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="D364" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="365" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="D365" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="366" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="D366" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="367" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="D367" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="369" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B369" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="370" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="C370" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="371" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="C371" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="372" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="C372" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="373" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="C373" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="374" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="C374" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="375" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="C375" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="376" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B376" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="377" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="C377" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="378" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="C378" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="379" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="C379" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="380" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="C380" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="381" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="C381" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="384" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B384" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="385" spans="3:4" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="385" spans="3:4" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="C385" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="386" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="386" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="D386" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="387" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="387" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="D387" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="388" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="388" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="D388" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="389" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="389" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="D389" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="390" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="390" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="D390" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="391" spans="3:4" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="391" spans="3:4" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="C391" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="392" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="392" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="D392" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="393" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="393" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="D393" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="394" spans="3:4" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.3">
+    <row r="394" spans="3:4" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.2">
       <c r="C394" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="395" spans="3:4" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="395" spans="3:4" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="D395" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="396" spans="3:4" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="396" spans="3:4" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="D396" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="397" spans="3:4" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="397" spans="3:4" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="D397" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="398" spans="3:4" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="398" spans="3:4" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="D398" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="399" spans="3:4" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="399" spans="3:4" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="D399" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="400" spans="3:4" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="400" spans="3:4" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="D400" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="401" spans="2:4" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="401" spans="2:4" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="D401" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="402" spans="2:4" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="402" spans="2:4" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="D402" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="403" spans="2:4" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="403" spans="2:4" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="D403" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="404" spans="2:4" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="404" spans="2:4" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="D404" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="405" spans="2:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="405" spans="2:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B405" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="406" spans="2:4" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="406" spans="2:4" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="C406" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="407" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="407" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="D407" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="408" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="408" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="D408" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="409" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="409" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="D409" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="410" spans="2:4" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="410" spans="2:4" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="C410" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="411" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="411" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="D411" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="412" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="412" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="D412" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="413" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="413" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="D413" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="414" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="414" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="D414" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="415" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="415" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="D415" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="416" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="416" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="D416" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="417" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="417" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="D417" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="418" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="418" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="D418" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="419" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="419" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="D419" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="420" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="420" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="D420" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="421" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="421" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="D421" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="422" spans="3:4" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="422" spans="3:4" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="C422" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="423" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="423" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="D423" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="424" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="424" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="D424" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="425" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="425" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="D425" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="426" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="426" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="D426" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="427" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="427" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="D427" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="428" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="428" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="D428" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="429" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="429" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="D429" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="430" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="430" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="D430" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="431" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="431" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="D431" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="432" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="432" spans="3:4" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="D432" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="433" spans="1:4" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:4" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.2">
       <c r="C433" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="434" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="D434" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="435" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="D435" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="436" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="D436" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="437" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="D437" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="438" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="D438" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="439" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="D439" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="440" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="D440" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="441" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="D441" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="442" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="443" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="444" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B444" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="445" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B445" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="446" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B446" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="447" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B447" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="448" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B448" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="449" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B449" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="450" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B450" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="451" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B451" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="452" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B452" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="453" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B453" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="454" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B454" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="455" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="456" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="457" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
         <v>23</v>
       </c>
@@ -5148,8 +5426,8 @@
   <dataConsolidate/>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B36" r:id="rId1" display="http://lieche.58.com/"/>
-    <hyperlink ref="C53" r:id="rId2" display="https://bj.daojia.com/jjaz/"/>
+    <hyperlink ref="B36" r:id="rId1" display="http://lieche.58.com/" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C53" r:id="rId2" display="https://bj.daojia.com/jjaz/" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" r:id="rId3"/>
@@ -5157,59 +5435,59 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.5" customWidth="1"/>
-    <col min="2" max="2" width="11.83203125" customWidth="1"/>
+    <col min="2" max="2" width="11.875" customWidth="1"/>
     <col min="3" max="3" width="11.75" customWidth="1"/>
     <col min="4" max="4" width="10.25" customWidth="1"/>
-    <col min="5" max="5" width="23.58203125" customWidth="1"/>
-    <col min="6" max="6" width="31.33203125" customWidth="1"/>
-    <col min="7" max="7" width="35.08203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.625" customWidth="1"/>
+    <col min="6" max="6" width="31.375" customWidth="1"/>
+    <col min="7" max="7" width="35.125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.75" customWidth="1"/>
     <col min="9" max="9" width="33" customWidth="1"/>
-    <col min="10" max="10" width="12.4140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="28" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
         <v>479</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>483</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="13" t="s">
         <v>500</v>
       </c>
-      <c r="D1" s="7"/>
-      <c r="E1" s="8" t="s">
+      <c r="D1" s="13"/>
+      <c r="E1" s="6" t="s">
         <v>517</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="7" t="s">
         <v>549</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="9" t="s">
         <v>569</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="10" t="s">
         <v>570</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="11" t="s">
         <v>572</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="J1" s="12" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="70" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:10" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A2" s="14" t="s">
         <v>512</v>
       </c>
       <c r="B2" t="s">
@@ -5219,22 +5497,22 @@
         <v>480</v>
       </c>
       <c r="D2" s="2"/>
-      <c r="E2" s="4"/>
+      <c r="E2" s="3"/>
       <c r="G2" t="s">
         <v>568</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="8" t="s">
         <v>575</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="8" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="84" x14ac:dyDescent="0.3">
-      <c r="A3" s="3"/>
+    <row r="3" spans="1:10" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="14"/>
       <c r="B3" t="s">
         <v>455</v>
       </c>
@@ -5244,7 +5522,7 @@
       <c r="D3" s="2" t="s">
         <v>482</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>576</v>
       </c>
       <c r="F3" t="s">
@@ -5256,15 +5534,15 @@
       <c r="H3" s="1" t="s">
         <v>579</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="I3" s="8" t="s">
         <v>580</v>
       </c>
       <c r="J3" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="3"/>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="14"/>
       <c r="B4" t="s">
         <v>456</v>
       </c>
@@ -5274,7 +5552,7 @@
       <c r="D4" s="2" t="s">
         <v>488</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>523</v>
       </c>
       <c r="F4" t="s">
@@ -5287,8 +5565,8 @@
         <v>583</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="3"/>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="14"/>
       <c r="B5" t="s">
         <v>457</v>
       </c>
@@ -5298,15 +5576,15 @@
       <c r="D5" s="2" t="s">
         <v>525</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="3" t="s">
         <v>553</v>
       </c>
       <c r="F5" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="3"/>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="14"/>
       <c r="B6" t="s">
         <v>458</v>
       </c>
@@ -5316,10 +5594,10 @@
       <c r="D6" s="2" t="s">
         <v>489</v>
       </c>
-      <c r="E6" s="4"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="3"/>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="14"/>
       <c r="B7" t="s">
         <v>459</v>
       </c>
@@ -5329,15 +5607,15 @@
       <c r="D7" s="2" t="s">
         <v>503</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="3" t="s">
         <v>552</v>
       </c>
       <c r="F7" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="3"/>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="14"/>
       <c r="B8" t="s">
         <v>460</v>
       </c>
@@ -5347,10 +5625,10 @@
       <c r="D8" s="2" t="s">
         <v>491</v>
       </c>
-      <c r="E8" s="4"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="14" t="s">
         <v>513</v>
       </c>
       <c r="B9" t="s">
@@ -5359,10 +5637,10 @@
       <c r="C9" s="2" t="s">
         <v>502</v>
       </c>
-      <c r="E9" s="4"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="3"/>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="14"/>
       <c r="B10" t="s">
         <v>462</v>
       </c>
@@ -5372,12 +5650,12 @@
       <c r="D10" s="2" t="s">
         <v>534</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="3" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="3"/>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="14"/>
       <c r="B11" t="s">
         <v>463</v>
       </c>
@@ -5385,15 +5663,15 @@
         <v>497</v>
       </c>
       <c r="D11" s="2"/>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="3" t="s">
         <v>522</v>
       </c>
       <c r="F11" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="3"/>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="14"/>
       <c r="B12" t="s">
         <v>478</v>
       </c>
@@ -5401,24 +5679,24 @@
         <v>493</v>
       </c>
       <c r="D12" s="2"/>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="3" t="s">
         <v>521</v>
       </c>
       <c r="F12" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="3"/>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="14"/>
       <c r="B13" t="s">
         <v>464</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="4"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="3"/>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="14"/>
       <c r="B14" t="s">
         <v>465</v>
       </c>
@@ -5426,15 +5704,15 @@
         <v>8</v>
       </c>
       <c r="D14" s="2"/>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="3" t="s">
         <v>520</v>
       </c>
       <c r="F14" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="3"/>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="14"/>
       <c r="B15" t="s">
         <v>466</v>
       </c>
@@ -5442,15 +5720,15 @@
         <v>562</v>
       </c>
       <c r="D15" s="2"/>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="3" t="s">
         <v>563</v>
       </c>
       <c r="F15" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="14" t="s">
         <v>486</v>
       </c>
       <c r="B16" t="s">
@@ -5462,15 +5740,15 @@
       <c r="D16" s="2" t="s">
         <v>499</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="3" t="s">
         <v>519</v>
       </c>
       <c r="F16" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="3"/>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="14"/>
       <c r="B17" t="s">
         <v>485</v>
       </c>
@@ -5478,15 +5756,15 @@
         <v>494</v>
       </c>
       <c r="D17" s="2"/>
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="3" t="s">
         <v>518</v>
       </c>
       <c r="F17" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="3"/>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="14"/>
       <c r="B18" t="s">
         <v>515</v>
       </c>
@@ -5496,15 +5774,15 @@
       <c r="D18" s="2" t="s">
         <v>560</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E18" s="3" t="s">
         <v>559</v>
       </c>
       <c r="F18" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="14" t="s">
         <v>514</v>
       </c>
       <c r="B19" t="s">
@@ -5512,22 +5790,22 @@
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
-      <c r="E19" s="4"/>
+      <c r="E19" s="3"/>
       <c r="G19" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="3"/>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="14"/>
       <c r="B20" t="s">
         <v>468</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
-      <c r="E20" s="4"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="3"/>
+      <c r="E20" s="3"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="14"/>
       <c r="B21" t="s">
         <v>469</v>
       </c>
@@ -5535,15 +5813,15 @@
         <v>495</v>
       </c>
       <c r="D21" s="2"/>
-      <c r="E21" s="4" t="s">
+      <c r="E21" s="3" t="s">
         <v>526</v>
       </c>
       <c r="F21" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="3"/>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="14"/>
       <c r="B22" t="s">
         <v>470</v>
       </c>
@@ -5553,15 +5831,15 @@
       <c r="D22" s="2" t="s">
         <v>555</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="E22" s="3" t="s">
         <v>557</v>
       </c>
       <c r="F22" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="3"/>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="14"/>
       <c r="B23" t="s">
         <v>471</v>
       </c>
@@ -5571,15 +5849,15 @@
       <c r="D23" s="2" t="s">
         <v>527</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="E23" s="3" t="s">
         <v>528</v>
       </c>
       <c r="F23" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="s">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="14" t="s">
         <v>516</v>
       </c>
       <c r="B24" t="s">
@@ -5591,15 +5869,15 @@
       <c r="D24" s="2" t="s">
         <v>508</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="E24" s="3" t="s">
         <v>529</v>
       </c>
       <c r="F24" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="28" x14ac:dyDescent="0.3">
-      <c r="A25" s="3"/>
+    <row r="25" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A25" s="14"/>
       <c r="B25" t="s">
         <v>510</v>
       </c>
@@ -5609,24 +5887,24 @@
       <c r="D25" s="2" t="s">
         <v>566</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="E25" s="3" t="s">
         <v>565</v>
       </c>
-      <c r="F25" s="10" t="s">
+      <c r="F25" s="8" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="3"/>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="14"/>
       <c r="B26" t="s">
         <v>472</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
-      <c r="E26" s="4"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="3"/>
+      <c r="E26" s="3"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="14"/>
       <c r="B27" t="s">
         <v>473</v>
       </c>
@@ -5634,21 +5912,21 @@
         <v>504</v>
       </c>
       <c r="D27" s="2"/>
-      <c r="E27" s="4" t="s">
+      <c r="E27" s="3" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="3"/>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="14"/>
       <c r="B28" t="s">
         <v>474</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
-      <c r="E28" s="4"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="3"/>
+      <c r="E28" s="3"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="14"/>
       <c r="B29" t="s">
         <v>475</v>
       </c>
@@ -5656,15 +5934,15 @@
         <v>496</v>
       </c>
       <c r="D29" s="2"/>
-      <c r="E29" s="4" t="s">
+      <c r="E29" s="3" t="s">
         <v>531</v>
       </c>
       <c r="F29" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="3"/>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="14"/>
       <c r="B30" t="s">
         <v>477</v>
       </c>
@@ -5672,22 +5950,22 @@
         <v>505</v>
       </c>
       <c r="D30" s="2"/>
-      <c r="E30" s="4" t="s">
+      <c r="E30" s="3" t="s">
         <v>533</v>
       </c>
       <c r="F30" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="3"/>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="14"/>
       <c r="B31" t="s">
         <v>476</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>511</v>
       </c>
-      <c r="E31" s="4" t="s">
+      <c r="E31" s="3" t="s">
         <v>532</v>
       </c>
       <c r="F31" t="s">
@@ -5696,20 +5974,318 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A24:A31"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="A9:A15"/>
     <mergeCell ref="A2:A8"/>
     <mergeCell ref="A19:A23"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A24:A31"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" display="https://baike.so.com/doc/5342961-7116906.html"/>
-    <hyperlink ref="B20" r:id="rId2" display="https://baike.so.com/doc/112509-118673.html"/>
-    <hyperlink ref="B26" r:id="rId3" display="https://baike.so.com/doc/37583-39258.html"/>
+    <hyperlink ref="B3" r:id="rId1" display="https://baike.so.com/doc/5342961-7116906.html" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="B20" r:id="rId2" display="https://baike.so.com/doc/112509-118673.html" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="B26" r:id="rId3" display="https://baike.so.com/doc/37583-39258.html" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9A3C1A7-5B2C-4574-A239-F6A7A7156399}">
+  <dimension ref="A1:E34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="19.5" customWidth="1"/>
+    <col min="3" max="3" width="16.25" style="8" customWidth="1"/>
+    <col min="4" max="4" width="23.625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="20.375" style="8" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C1" s="8" t="s">
+        <v>590</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>591</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>584</v>
+      </c>
+      <c r="B2" t="s">
+        <v>587</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>599</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>601</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C3" s="8" t="s">
+        <v>615</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>614</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C4" s="8" t="s">
+        <v>617</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>619</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C5" s="8" t="s">
+        <v>623</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>625</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>588</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>637</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>639</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="C11" s="8" t="s">
+        <v>595</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>597</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>589</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>593</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>598</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C13" s="8" t="s">
+        <v>599</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>603</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="C14" s="8" t="s">
+        <v>650</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>652</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C15" s="8" t="s">
+        <v>599</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>605</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C18" s="8" t="s">
+        <v>606</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>608</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C19" s="8" t="s">
+        <v>609</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>611</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="20" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C20" s="8" t="s">
+        <v>606</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>612</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="21" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C21" s="8" t="s">
+        <v>622</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>620</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="22" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C22" s="8" t="s">
+        <v>629</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>630</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="23" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C23" s="8" t="s">
+        <v>626</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>628</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="24" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C24" s="8" t="s">
+        <v>631</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>633</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="25" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C25" s="8" t="s">
+        <v>634</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>636</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="26" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C26" s="8" t="s">
+        <v>640</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>642</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="27" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C27" s="8" t="s">
+        <v>643</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>644</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="28" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C28" s="8" t="s">
+        <v>646</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>647</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="29" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C29" s="8" t="s">
+        <v>648</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>649</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>586</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>